--- a/biology/Médecine/Joseph_Painchaud_(philanthrope)/Joseph_Painchaud_(philanthrope).xlsx
+++ b/biology/Médecine/Joseph_Painchaud_(philanthrope)/Joseph_Painchaud_(philanthrope).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joseph-Louis Painchaud (né le 12 juin 1819 à Québec, mort probablement le 7 avril 1855[1] au Mexique) est un médecin, chirurgien et philanthrope canadien[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph-Louis Painchaud (né le 12 juin 1819 à Québec, mort probablement le 7 avril 1855 au Mexique) est un médecin, chirurgien et philanthrope canadien.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le fils de Joseph Painchaud, médecin. Il souhaite devenir clerc après avoir étudié au petit séminaire de Québec. À la suite d'une chute dans un escalier, il devient handicapé. Il apprend la médecine auprès de son père et du docteur James Douglas[3]. Il étudie aussi à Paris où il rejoint la société de Saint-Vincent-de-Paul, avant de retourner au Québec[4].
-Il travaille à l'hôpital de la Marine et des émigrés à Québec entre 1846 et 1849, et a eu une grande influence sur le statut de la Société de Saint-Vincent-de-Paul à Québec[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le fils de Joseph Painchaud, médecin. Il souhaite devenir clerc après avoir étudié au petit séminaire de Québec. À la suite d'une chute dans un escalier, il devient handicapé. Il apprend la médecine auprès de son père et du docteur James Douglas. Il étudie aussi à Paris où il rejoint la société de Saint-Vincent-de-Paul, avant de retourner au Québec.
+Il travaille à l'hôpital de la Marine et des émigrés à Québec entre 1846 et 1849, et a eu une grande influence sur le statut de la Société de Saint-Vincent-de-Paul à Québec.
 Il est mort probablement au Mexique en 1855.
 </t>
         </is>
